--- a/data/trans_camb/P20B-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P20B-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P20B-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P20B-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -647,32 +647,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,56</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,66</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,03</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,23</t>
         </is>
       </c>
     </row>
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,67; 46,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,75; 17,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,44; 24,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,74; 38,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,09; 41,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,67; 27,65</t>
         </is>
       </c>
     </row>
@@ -753,32 +753,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,31%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,01%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,93%</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,99; 264,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 116,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 162,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,82; 188,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,59; 205,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,89; 128,98</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,45</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,74</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,86</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,1</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,45</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,71</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,26; 26,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,23; 37,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,78; 26,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,07; 15,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,42; 34,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,98; 27,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,87; 14,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,4; 29,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,12; 21,17</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,28%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,95%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,11%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,71%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>77,86%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,12%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,81%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,34%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,09; 206,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,52; 212,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,55; 189,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,71; 194,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,55; 405,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,02; 302,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,78; 101,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,63; 199,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,48; 148,29</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,97</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,98</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,23</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,69</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,24</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,0</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,72</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,52</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,13; 21,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,52; 25,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,75; 22,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,43; 25,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,89; 19,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,01; 23,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,05; 20,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,88; 16,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,2; 18,88</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,18%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,57%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,82%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>105,39%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,52%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,06%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,99%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,16%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,15%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,21; 192,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,07; 237,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,38; 206,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,59; 300,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,29; 233,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,86; 285,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,51; 177,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,69; 141,38</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,07; 158,6</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,14</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,78</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,07</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,12</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,95</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,19</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,56</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,71; 30,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,32; 36,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,89; 38,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,42; 9,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,22; 12,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,98; 3,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,47; 13,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,18; 15,32</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,46; 15,99</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,57%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,41%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,95%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,05%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,59%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,52%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,92%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,52; 245,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,1; 296,89</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,78; 326,96</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,43; 47,76</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,34; 74,92</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,0; 22,57</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,13; 68,27</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,27; 68,61</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,23; 81,28</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,34</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,21</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,83</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,0</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,93</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,93; 14,93</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,43; 14,99</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,96; 18,16</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,8; 17,22</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,6; 20,33</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,43; 17,24</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,68; 12,25</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,28; 13,06</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,66; 13,72</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,56%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,81%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,64%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,4%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,7%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,99%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,5%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,65; 72,08</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,05; 70,91</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,03; 89,73</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,22; 158,95</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,56; 191,03</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,81; 156,52</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,0; 69,72</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,17; 78,12</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,53; 82,26</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,45</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,96</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,16</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,55</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,17</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,01; 12,69</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,92; 18,37</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,47; 16,68</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,61; 11,79</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,2; 12,1</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,38; 9,98</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 9,68</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,07; 12,17</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,62; 10,81</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,4%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,54%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,76%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,6%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,53%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,01%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,89%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,16%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,25; 59,09</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,49; 83,04</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,44; 85,99</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,73; 70,51</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,13; 72,99</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,8; 55,88</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,21; 50,41</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,56; 63,27</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,37; 55,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P20B-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P20B-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>16,97</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,03</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-22,56</t>
+          <t>6,34</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-16,66</t>
+          <t>3,84</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,03</t>
+          <t>12,72</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-5,23</t>
+          <t>5,58</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,93; 24,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,27; 42,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,93; 27,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-29,67; 46,34</t>
+          <t>-13,28; 16,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-60,75; 17,9</t>
+          <t>-12,74; 23,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-58,44; 24,36</t>
+          <t>-13,93; 20,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-29,74; 38,12</t>
+          <t>-12,92; 13,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-35,09; 41,76</t>
+          <t>-3,23; 27,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-42,67; 27,65</t>
+          <t>-8,44; 18,87</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,14%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,42%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,31%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-51,47%</t>
+          <t>26,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-38,01%</t>
+          <t>16,3%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>48,47%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-11,93%</t>
+          <t>21,26%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,31; 177,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,22; 282,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,98; 212,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-50,99; 264,89</t>
+          <t>-41,02; 128,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 116,98</t>
+          <t>-40,16; 150,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 162,77</t>
+          <t>-43,49; 137,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-46,82; 188,05</t>
+          <t>-36,73; 74,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-51,59; 205,29</t>
+          <t>-8,68; 157,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-63,89; 128,98</t>
+          <t>-26,83; 100,86</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,45</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,74</t>
+          <t>5,97</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>14,23</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,86</t>
+          <t>6,69</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,1</t>
+          <t>8,35</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>11,0</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>13,45</t>
+          <t>6,72</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,71</t>
+          <t>7,63</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-28,26; 26,47</t>
+          <t>-12,13; 21,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-21,23; 37,02</t>
+          <t>-12,52; 25,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-28,78; 26,01</t>
+          <t>-12,76; 23,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,07; 15,42</t>
+          <t>0,43; 25,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 34,97</t>
+          <t>-5,89; 19,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 27,18</t>
+          <t>-3,06; 23,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-13,87; 14,49</t>
+          <t>1,05; 20,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 29,01</t>
+          <t>-3,88; 16,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 21,17</t>
+          <t>-2,98; 18,88</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-7,28%</t>
+          <t>23,18%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>28,95%</t>
+          <t>28,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,11%</t>
+          <t>23,88%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,71%</t>
+          <t>105,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>77,86%</t>
+          <t>49,52%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>51,12%</t>
+          <t>61,84%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>68,99%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>58,81%</t>
+          <t>42,16%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>29,34%</t>
+          <t>47,83%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-59,09; 206,64</t>
+          <t>-42,21; 192,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-45,52; 212,73</t>
+          <t>-47,07; 237,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-56,55; 189,97</t>
+          <t>-45,11; 215,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-60,71; 194,92</t>
+          <t>-5,59; 300,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-20,55; 405,45</t>
+          <t>-35,29; 233,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,02; 302,18</t>
+          <t>-19,14; 281,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-45,78; 101,22</t>
+          <t>3,51; 177,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 199,8</t>
+          <t>-18,69; 141,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-26,48; 148,29</t>
+          <t>-17,99; 159,95</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,84</t>
+          <t>11,14</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,97</t>
+          <t>11,78</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,98</t>
+          <t>17,64</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>14,23</t>
+          <t>-6,12</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,69</t>
+          <t>-3,95</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,24</t>
+          <t>-11,09</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>11,0</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>6,72</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,52</t>
+          <t>2,08</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 21,34</t>
+          <t>-10,71; 30,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,52; 25,8</t>
+          <t>-10,32; 36,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 22,34</t>
+          <t>-3,57; 39,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,43; 25,64</t>
+          <t>-20,42; 9,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 19,25</t>
+          <t>-20,22; 12,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 23,58</t>
+          <t>-25,64; 4,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,05; 20,52</t>
+          <t>-12,47; 13,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 16,26</t>
+          <t>-12,18; 15,32</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 18,88</t>
+          <t>-12,0; 16,32</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>23,18%</t>
+          <t>49,57%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>28,57%</t>
+          <t>52,41%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>23,82%</t>
+          <t>78,49%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>105,39%</t>
+          <t>-21,05%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>49,52%</t>
+          <t>-13,59%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>61,06%</t>
+          <t>-38,17%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>68,99%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>42,16%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>47,15%</t>
+          <t>7,87%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-42,21; 192,57</t>
+          <t>-34,52; 245,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-47,07; 237,21</t>
+          <t>-35,1; 296,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-46,38; 206,0</t>
+          <t>-16,13; 339,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 300,78</t>
+          <t>-56,43; 47,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-35,29; 233,34</t>
+          <t>-57,34; 74,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-20,86; 285,63</t>
+          <t>-70,65; 21,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,51; 177,31</t>
+          <t>-38,13; 68,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-18,69; 141,38</t>
+          <t>-38,27; 68,61</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-18,07; 158,6</t>
+          <t>-36,18; 84,05</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>11,14</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>11,78</t>
+          <t>-4,34</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>17,07</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-6,12</t>
+          <t>4,21</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,95</t>
+          <t>6,83</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-11,19</t>
+          <t>6,32</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>5,02</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 30,07</t>
+          <t>-21,93; 14,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 36,05</t>
+          <t>-21,43; 14,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 38,76</t>
+          <t>-16,42; 17,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-20,42; 9,63</t>
+          <t>-7,8; 17,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-20,22; 12,85</t>
+          <t>-7,6; 20,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-25,98; 3,85</t>
+          <t>-5,89; 17,74</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-12,47; 13,13</t>
+          <t>-8,68; 12,25</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-12,18; 15,32</t>
+          <t>-9,28; 13,06</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-12,46; 15,99</t>
+          <t>-5,46; 13,86</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>49,57%</t>
+          <t>-9,56%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>52,41%</t>
+          <t>-13,81%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>75,95%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-21,05%</t>
+          <t>23,64%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-13,59%</t>
+          <t>38,4%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-38,52%</t>
+          <t>35,52%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>10,99%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>21,86%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-34,52; 245,11</t>
+          <t>-51,65; 72,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-35,1; 296,89</t>
+          <t>-54,05; 70,91</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-17,78; 326,96</t>
+          <t>-38,98; 86,5</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-56,43; 47,76</t>
+          <t>-34,22; 158,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-57,34; 74,92</t>
+          <t>-29,56; 191,03</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-71,0; 22,57</t>
+          <t>-28,55; 156,62</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-38,13; 68,27</t>
+          <t>-31,0; 69,72</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-38,27; 68,61</t>
+          <t>-32,17; 78,12</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-38,23; 81,28</t>
+          <t>-18,3; 82,34</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-3,0</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-4,34</t>
+          <t>7,45</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>6,87</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>4,21</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>6,83</t>
+          <t>4,16</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>6,0</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>5,55</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>5,38</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-21,93; 14,93</t>
+          <t>-6,01; 12,69</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-21,43; 14,99</t>
+          <t>-2,92; 18,37</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-15,96; 18,16</t>
+          <t>-2,54; 16,72</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 17,22</t>
+          <t>-2,61; 11,79</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 20,33</t>
+          <t>-3,2; 12,1</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 17,24</t>
+          <t>-4,09; 10,29</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 12,25</t>
+          <t>-1,04; 9,68</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 13,06</t>
+          <t>-0,07; 12,17</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 13,72</t>
+          <t>-0,51; 10,97</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-9,56%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-13,81%</t>
+          <t>28,4%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>26,18%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>23,64%</t>
+          <t>21,76%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>38,4%</t>
+          <t>20,6%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>33,7%</t>
+          <t>13,82%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>19,01%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>24,89%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>21,5%</t>
+          <t>24,09%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-51,65; 72,08</t>
+          <t>-19,25; 59,09</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-54,05; 70,91</t>
+          <t>-11,49; 83,04</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-38,03; 89,73</t>
+          <t>-7,9; 87,11</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-34,22; 158,95</t>
+          <t>-11,73; 70,51</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-29,56; 191,03</t>
+          <t>-14,13; 72,99</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-28,81; 156,52</t>
+          <t>-18,43; 57,51</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-31,0; 69,72</t>
+          <t>-4,21; 50,41</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-32,17; 78,12</t>
+          <t>-0,56; 63,27</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-18,53; 82,26</t>
+          <t>-1,8; 57,04</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>3,48</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>7,45</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>6,96</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>4,4</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>4,16</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>2,53</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>4,24</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>5,55</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>5,17</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-6,01; 12,69</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-2,92; 18,37</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-2,47; 16,68</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-2,61; 11,79</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-3,2; 12,1</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-4,38; 9,98</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-1,04; 9,68</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-0,07; 12,17</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-0,62; 10,81</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>13,25%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>28,4%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>26,54%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>21,76%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>20,6%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>12,53%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>19,01%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>24,89%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>23,16%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-19,25; 59,09</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-11,49; 83,04</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-7,44; 85,99</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-11,73; 70,51</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-14,13; 72,99</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-19,8; 55,88</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-4,21; 50,41</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-0,56; 63,27</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-2,37; 55,88</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P20B-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P20B-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-26,93; 24,8</t>
+          <t>-29,15; 22,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,27; 42,91</t>
+          <t>-14,0; 40,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-24,93; 27,54</t>
+          <t>-24,79; 26,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,28; 16,99</t>
+          <t>-14,16; 16,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,74; 23,16</t>
+          <t>-12,75; 24,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,93; 20,62</t>
+          <t>-12,95; 21,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,92; 13,7</t>
+          <t>-12,14; 14,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 27,6</t>
+          <t>-3,85; 27,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 18,87</t>
+          <t>-8,91; 19,18</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-53,31; 177,45</t>
+          <t>-56,92; 130,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-20,22; 282,82</t>
+          <t>-25,01; 269,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-46,98; 212,53</t>
+          <t>-48,88; 177,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-41,02; 128,01</t>
+          <t>-43,1; 118,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-40,16; 150,49</t>
+          <t>-41,08; 161,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-43,49; 137,0</t>
+          <t>-41,56; 150,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-36,73; 74,91</t>
+          <t>-34,8; 78,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 157,88</t>
+          <t>-12,9; 153,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-26,83; 100,86</t>
+          <t>-26,8; 107,73</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 21,34</t>
+          <t>-13,58; 22,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,52; 25,8</t>
+          <t>-11,3; 25,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,76; 23,38</t>
+          <t>-15,92; 21,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,43; 25,64</t>
+          <t>1,82; 26,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 19,25</t>
+          <t>-4,96; 19,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 23,11</t>
+          <t>-3,92; 21,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 20,52</t>
+          <t>1,6; 21,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 16,26</t>
+          <t>-3,56; 16,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 18,88</t>
+          <t>-2,37; 18,43</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-42,21; 192,57</t>
+          <t>-43,8; 215,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-47,07; 237,21</t>
+          <t>-39,6; 230,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-45,11; 215,35</t>
+          <t>-48,19; 184,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 300,78</t>
+          <t>-3,46; 336,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,29; 233,34</t>
+          <t>-30,59; 230,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,14; 281,89</t>
+          <t>-25,22; 262,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,51; 177,31</t>
+          <t>5,9; 197,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-18,69; 141,38</t>
+          <t>-19,07; 150,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-17,99; 159,95</t>
+          <t>-12,49; 168,93</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 30,07</t>
+          <t>-10,45; 33,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 36,05</t>
+          <t>-10,4; 35,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 39,36</t>
+          <t>-3,74; 38,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-20,42; 9,63</t>
+          <t>-21,73; 9,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-20,22; 12,85</t>
+          <t>-19,16; 14,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-25,64; 4,16</t>
+          <t>-25,84; 3,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-12,47; 13,13</t>
+          <t>-11,5; 14,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-12,18; 15,32</t>
+          <t>-11,57; 16,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-12,0; 16,32</t>
+          <t>-12,98; 14,3</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-34,52; 245,11</t>
+          <t>-35,73; 270,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-35,1; 296,89</t>
+          <t>-38,86; 284,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-16,13; 339,55</t>
+          <t>-14,3; 361,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-56,43; 47,76</t>
+          <t>-58,01; 42,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-57,34; 74,92</t>
+          <t>-55,39; 71,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-70,65; 21,42</t>
+          <t>-70,1; 22,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-38,13; 68,27</t>
+          <t>-36,2; 77,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-38,27; 68,61</t>
+          <t>-37,29; 81,75</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-36,18; 84,05</t>
+          <t>-38,83; 74,15</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-21,93; 14,93</t>
+          <t>-20,07; 15,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-21,43; 14,99</t>
+          <t>-22,13; 13,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-16,42; 17,84</t>
+          <t>-16,18; 18,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 17,22</t>
+          <t>-9,06; 16,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 20,33</t>
+          <t>-7,49; 19,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 17,74</t>
+          <t>-5,81; 18,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 12,25</t>
+          <t>-9,31; 11,37</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 13,06</t>
+          <t>-8,44; 13,98</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 13,86</t>
+          <t>-5,16; 15,66</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-51,65; 72,08</t>
+          <t>-52,77; 76,99</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-54,05; 70,91</t>
+          <t>-53,72; 66,93</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-38,98; 86,5</t>
+          <t>-40,87; 86,87</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-34,22; 158,95</t>
+          <t>-35,46; 151,31</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-29,56; 191,03</t>
+          <t>-32,14; 183,36</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-28,55; 156,62</t>
+          <t>-25,84; 157,61</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-31,0; 69,72</t>
+          <t>-32,29; 68,13</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-32,17; 78,12</t>
+          <t>-30,66; 79,16</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-18,3; 82,34</t>
+          <t>-20,24; 90,72</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 12,69</t>
+          <t>-7,28; 13,26</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 18,37</t>
+          <t>-2,81; 17,68</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 16,72</t>
+          <t>-2,99; 16,72</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 11,79</t>
+          <t>-2,49; 11,25</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 12,1</t>
+          <t>-3,16; 11,06</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 10,29</t>
+          <t>-4,22; 9,37</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 9,68</t>
+          <t>-1,4; 9,97</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 12,17</t>
+          <t>-1,01; 11,73</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 10,97</t>
+          <t>-0,96; 11,33</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-19,25; 59,09</t>
+          <t>-22,9; 62,52</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-11,49; 83,04</t>
+          <t>-9,03; 80,31</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 87,11</t>
+          <t>-9,7; 85,3</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 70,51</t>
+          <t>-10,01; 71,67</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-14,13; 72,99</t>
+          <t>-14,03; 67,62</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-18,43; 57,51</t>
+          <t>-17,79; 56,77</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 50,41</t>
+          <t>-5,22; 50,26</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 63,27</t>
+          <t>-3,63; 60,56</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 57,04</t>
+          <t>-3,45; 58,96</t>
         </is>
       </c>
     </row>
